--- a/text/tables/overview.xlsx
+++ b/text/tables/overview.xlsx
@@ -450,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I360"/>
+  <dimension ref="A1:L360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,21 @@
           <t>Left_right</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Anteroposterior_delta</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Craniocaudal_delta</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Left_right_delta</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -536,6 +551,15 @@
       <c r="I2" t="n">
         <v>423.54688</v>
       </c>
+      <c r="J2" t="n">
+        <v>0.41362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.4506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.41362</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -573,6 +597,15 @@
       <c r="I3" t="n">
         <v>442.43968</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.43207</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.2895</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.43207</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -610,6 +643,15 @@
       <c r="I4" t="n">
         <v>553.6768</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.5407</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.1924</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5407</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -647,6 +689,15 @@
       <c r="I5" t="n">
         <v>432.68096</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.42254</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.2837</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.42254</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -684,6 +735,15 @@
       <c r="I6" t="n">
         <v>508.20096</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.49629</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.8919</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.49629</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -721,6 +781,15 @@
       <c r="I7" t="n">
         <v>295.5264</v>
       </c>
+      <c r="J7" t="n">
+        <v>0.2886</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.6686</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2886</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -758,6 +827,15 @@
       <c r="I8" t="n">
         <v>485.71392</v>
       </c>
+      <c r="J8" t="n">
+        <v>0.47433</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.7593</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.47433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -795,6 +873,15 @@
       <c r="I9" t="n">
         <v>410.99776</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.8027300000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.1215</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8027300000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -832,6 +919,15 @@
       <c r="I10" t="n">
         <v>403.26144</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.39381</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.1052</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.39381</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -869,6 +965,15 @@
       <c r="I11" t="n">
         <v>368.78336</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.36014</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.1755</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.36014</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -906,6 +1011,15 @@
       <c r="I12" t="n">
         <v>318.77632</v>
       </c>
+      <c r="J12" t="n">
+        <v>0.62261</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.3286</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.62261</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -943,6 +1057,15 @@
       <c r="I13" t="n">
         <v>313.61024</v>
       </c>
+      <c r="J13" t="n">
+        <v>0.30626</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.30626</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -980,6 +1103,15 @@
       <c r="I14" t="n">
         <v>337.2032</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.8129</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3293</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1017,6 +1149,15 @@
       <c r="I15" t="n">
         <v>557.16864</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.54411</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.3069</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.54411</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1054,6 +1195,15 @@
       <c r="I16" t="n">
         <v>403.95776</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.39449</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.1164</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.39449</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1091,6 +1241,15 @@
       <c r="I17" t="n">
         <v>588.65664</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.57486</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.1101</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.57486</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1128,6 +1287,15 @@
       <c r="I18" t="n">
         <v>386.77504</v>
       </c>
+      <c r="J18" t="n">
+        <v>0.37771</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.1901</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.37771</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1165,6 +1333,15 @@
       <c r="I19" t="n">
         <v>358.28736</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.34989</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.3407</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.34989</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1202,6 +1379,15 @@
       <c r="I20" t="n">
         <v>457.728</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.0408</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.447</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1239,6 +1425,15 @@
       <c r="I21" t="n">
         <v>336.09728</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.32822</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.6017</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.32822</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1276,6 +1471,15 @@
       <c r="I22" t="n">
         <v>310.2208</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.30295</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.6071</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.30295</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1313,6 +1517,15 @@
       <c r="I23" t="n">
         <v>313.81504</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.30646</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.0214</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.30646</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1350,6 +1563,15 @@
       <c r="I24" t="n">
         <v>361.78944</v>
       </c>
+      <c r="J24" t="n">
+        <v>0.35331</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.3045</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.35331</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1387,6 +1609,15 @@
       <c r="I25" t="n">
         <v>352.9984</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.68945</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.0198</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.68945</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1424,6 +1655,15 @@
       <c r="I26" t="n">
         <v>651.61216</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.63634</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.4349</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.63634</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -1463,6 +1703,15 @@
       <c r="I27" t="n">
         <v>77.0000166</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.85000083</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -1502,6 +1751,15 @@
       <c r="I28" t="n">
         <v>60</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -1541,6 +1799,15 @@
       <c r="I29" t="n">
         <v>82.5000115</v>
       </c>
+      <c r="J29" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.30000046</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -1580,6 +1847,15 @@
       <c r="I30" t="n">
         <v>102.3000031</v>
       </c>
+      <c r="J30" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.3000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -1619,6 +1895,15 @@
       <c r="I31" t="n">
         <v>60</v>
       </c>
+      <c r="J31" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -1658,6 +1943,15 @@
       <c r="I32" t="n">
         <v>61.60004288</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.470085472</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.470085472</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.85000268</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1697,6 +1991,15 @@
       <c r="I33" t="n">
         <v>60</v>
       </c>
+      <c r="J33" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -1736,6 +2039,15 @@
       <c r="I34" t="n">
         <v>60</v>
       </c>
+      <c r="J34" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -1775,6 +2087,15 @@
       <c r="I35" t="n">
         <v>69.00006187</v>
       </c>
+      <c r="J35" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.00000269</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
@@ -1814,6 +2135,15 @@
       <c r="I36" t="n">
         <v>52.8</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1853,6 +2183,15 @@
       <c r="I37" t="n">
         <v>60</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
@@ -1892,6 +2231,15 @@
       <c r="I38" t="n">
         <v>52.8</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.68359375</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
@@ -1931,6 +2279,15 @@
       <c r="I39" t="n">
         <v>60</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
@@ -1970,6 +2327,15 @@
       <c r="I40" t="n">
         <v>61.599976</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.470085472</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.470085472</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.8499985</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -2009,6 +2375,15 @@
       <c r="I41" t="n">
         <v>60</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
@@ -2048,6 +2423,15 @@
       <c r="I42" t="n">
         <v>69.30001998</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.495495498</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.495495498</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.85000111</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -2086,6 +2470,15 @@
       </c>
       <c r="I43" t="n">
         <v>100</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L43" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="44">
@@ -2124,6 +2517,15 @@
       <c r="I44" t="n">
         <v>80.00000446768021</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L44" t="n">
+        <v>4.000000223384011</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2161,6 +2563,15 @@
       <c r="I45" t="n">
         <v>80.00000030127748</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4.000000015063874</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2198,6 +2609,15 @@
       <c r="I46" t="n">
         <v>80.0000003012764</v>
       </c>
+      <c r="J46" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L46" t="n">
+        <v>4.00000001506382</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2235,6 +2655,15 @@
       <c r="I47" t="n">
         <v>80.0000446222524</v>
       </c>
+      <c r="J47" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.00000223111262</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2272,6 +2701,15 @@
       <c r="I48" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J48" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2309,6 +2747,15 @@
       <c r="I49" t="n">
         <v>80.00004462225135</v>
       </c>
+      <c r="J49" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.000002231112568</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2346,6 +2793,15 @@
       <c r="I50" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J50" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2383,6 +2839,15 @@
       <c r="I51" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J51" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2420,6 +2885,15 @@
       <c r="I52" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J52" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2457,6 +2931,15 @@
       <c r="I53" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J53" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2494,6 +2977,15 @@
       <c r="I54" t="n">
         <v>79.99996431310807</v>
       </c>
+      <c r="J54" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.999998215655403</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2531,6 +3023,15 @@
       <c r="I55" t="n">
         <v>80.00004462225134</v>
       </c>
+      <c r="J55" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L55" t="n">
+        <v>4.000002231112567</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2568,6 +3069,15 @@
       <c r="I56" t="n">
         <v>79.99997756714239</v>
       </c>
+      <c r="J56" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L56" t="n">
+        <v>3.99999887835712</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2605,6 +3115,15 @@
       <c r="I57" t="n">
         <v>80.00004453014796</v>
       </c>
+      <c r="J57" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4.000002226507398</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2642,6 +3161,15 @@
       <c r="I58" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J58" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2679,6 +3207,15 @@
       <c r="I59" t="n">
         <v>80.00004261452341</v>
       </c>
+      <c r="J59" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.000002130726171</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2716,6 +3253,15 @@
       <c r="I60" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J60" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2753,6 +3299,15 @@
       <c r="I61" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L61" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2790,6 +3345,15 @@
       <c r="I62" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J62" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L62" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2827,6 +3391,15 @@
       <c r="I63" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J63" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L63" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2864,6 +3437,15 @@
       <c r="I64" t="n">
         <v>80.00004462225237</v>
       </c>
+      <c r="J64" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.000002231112619</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2901,6 +3483,15 @@
       <c r="I65" t="n">
         <v>80.00000245995126</v>
       </c>
+      <c r="J65" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L65" t="n">
+        <v>4.000000122997563</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2938,6 +3529,15 @@
       <c r="I66" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J66" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L66" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2975,6 +3575,15 @@
       <c r="I67" t="n">
         <v>80.00004462225134</v>
       </c>
+      <c r="J67" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L67" t="n">
+        <v>4.000002231112567</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3012,6 +3621,15 @@
       <c r="I68" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J68" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3049,6 +3667,15 @@
       <c r="I69" t="n">
         <v>80.00004662998032</v>
       </c>
+      <c r="J69" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L69" t="n">
+        <v>4.000002331499016</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3086,6 +3713,15 @@
       <c r="I70" t="n">
         <v>80.0000446222524</v>
       </c>
+      <c r="J70" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L70" t="n">
+        <v>4.00000223111262</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3123,6 +3759,15 @@
       <c r="I71" t="n">
         <v>80.00004662998032</v>
       </c>
+      <c r="J71" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L71" t="n">
+        <v>4.000002331499016</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3160,6 +3805,15 @@
       <c r="I72" t="n">
         <v>80.00000030127745</v>
       </c>
+      <c r="J72" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L72" t="n">
+        <v>4.000000015063873</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3197,6 +3851,15 @@
       <c r="I73" t="n">
         <v>79.99996431310871</v>
       </c>
+      <c r="J73" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L73" t="n">
+        <v>3.999998215655435</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3234,6 +3897,15 @@
       <c r="I74" t="n">
         <v>80</v>
       </c>
+      <c r="J74" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3271,6 +3943,15 @@
       <c r="I75" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J75" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3308,6 +3989,15 @@
       <c r="I76" t="n">
         <v>219</v>
       </c>
+      <c r="J76" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3345,6 +4035,15 @@
       <c r="I77" t="n">
         <v>79.99999289809583</v>
       </c>
+      <c r="J77" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L77" t="n">
+        <v>3.999999644904791</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3382,6 +4081,15 @@
       <c r="I78" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J78" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3419,6 +4127,15 @@
       <c r="I79" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J79" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L79" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3456,6 +4173,15 @@
       <c r="I80" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J80" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3493,6 +4219,15 @@
       <c r="I81" t="n">
         <v>80</v>
       </c>
+      <c r="J81" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L81" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3530,6 +4265,15 @@
       <c r="I82" t="n">
         <v>80</v>
       </c>
+      <c r="J82" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L82" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3567,6 +4311,15 @@
       <c r="I83" t="n">
         <v>80</v>
       </c>
+      <c r="J83" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3604,6 +4357,15 @@
       <c r="I84" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J84" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L84" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3641,6 +4403,15 @@
       <c r="I85" t="n">
         <v>80</v>
       </c>
+      <c r="J85" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3678,6 +4449,15 @@
       <c r="I86" t="n">
         <v>80</v>
       </c>
+      <c r="J86" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3715,6 +4495,15 @@
       <c r="I87" t="n">
         <v>80</v>
       </c>
+      <c r="J87" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L87" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3752,6 +4541,15 @@
       <c r="I88" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J88" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3789,6 +4587,15 @@
       <c r="I89" t="n">
         <v>79.99999999999893</v>
       </c>
+      <c r="J89" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L89" t="n">
+        <v>3.999999999999947</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3826,6 +4633,15 @@
       <c r="I90" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J90" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3863,6 +4679,15 @@
       <c r="I91" t="n">
         <v>80</v>
       </c>
+      <c r="J91" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L91" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3900,6 +4725,15 @@
       <c r="I92" t="n">
         <v>80</v>
       </c>
+      <c r="J92" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3937,6 +4771,15 @@
       <c r="I93" t="n">
         <v>80</v>
       </c>
+      <c r="J93" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L93" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3974,6 +4817,15 @@
       <c r="I94" t="n">
         <v>80</v>
       </c>
+      <c r="J94" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4011,6 +4863,15 @@
       <c r="I95" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J95" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L95" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4048,6 +4909,15 @@
       <c r="I96" t="n">
         <v>219.0000000002202</v>
       </c>
+      <c r="J96" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3.000000000003016</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4083,6 +4953,15 @@
       <c r="I97" t="n">
         <v>78</v>
       </c>
+      <c r="J97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4118,6 +4997,15 @@
       <c r="I98" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4153,6 +5041,15 @@
       <c r="I99" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4188,6 +5085,15 @@
       <c r="I100" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4223,6 +5129,15 @@
       <c r="I101" t="n">
         <v>78</v>
       </c>
+      <c r="J101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4258,6 +5173,15 @@
       <c r="I102" t="n">
         <v>78</v>
       </c>
+      <c r="J102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4293,6 +5217,15 @@
       <c r="I103" t="n">
         <v>78</v>
       </c>
+      <c r="J103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L103" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4328,6 +5261,15 @@
       <c r="I104" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4363,6 +5305,15 @@
       <c r="I105" t="n">
         <v>78</v>
       </c>
+      <c r="J105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4398,6 +5349,15 @@
       <c r="I106" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4433,6 +5393,15 @@
       <c r="I107" t="n">
         <v>78</v>
       </c>
+      <c r="J107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4468,6 +5437,15 @@
       <c r="I108" t="n">
         <v>78</v>
       </c>
+      <c r="J108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4503,6 +5481,15 @@
       <c r="I109" t="n">
         <v>78</v>
       </c>
+      <c r="J109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4538,6 +5525,15 @@
       <c r="I110" t="n">
         <v>78</v>
       </c>
+      <c r="J110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4573,6 +5569,15 @@
       <c r="I111" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4608,6 +5613,15 @@
       <c r="I112" t="n">
         <v>78</v>
       </c>
+      <c r="J112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4643,6 +5657,15 @@
       <c r="I113" t="n">
         <v>78</v>
       </c>
+      <c r="J113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L113" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4678,6 +5701,15 @@
       <c r="I114" t="n">
         <v>78</v>
       </c>
+      <c r="J114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L114" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4713,6 +5745,15 @@
       <c r="I115" t="n">
         <v>78</v>
       </c>
+      <c r="J115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K115" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4748,6 +5789,15 @@
       <c r="I116" t="n">
         <v>78</v>
       </c>
+      <c r="J116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4783,6 +5833,15 @@
       <c r="I117" t="n">
         <v>78</v>
       </c>
+      <c r="J117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L117" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4818,6 +5877,15 @@
       <c r="I118" t="n">
         <v>78</v>
       </c>
+      <c r="J118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4855,6 +5923,15 @@
       <c r="I119" t="n">
         <v>160</v>
       </c>
+      <c r="J119" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4892,6 +5969,15 @@
       <c r="I120" t="n">
         <v>177.9998779296875</v>
       </c>
+      <c r="J120" t="n">
+        <v>0.3476560115814209</v>
+      </c>
+      <c r="K120" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.3476560115814209</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4929,6 +6015,15 @@
       <c r="I121" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J121" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4966,6 +6061,15 @@
       <c r="I122" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J122" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5003,6 +6107,15 @@
       <c r="I123" t="n">
         <v>149.0001983642578</v>
       </c>
+      <c r="J123" t="n">
+        <v>0.291016012430191</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.291016012430191</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5040,6 +6153,15 @@
       <c r="I124" t="n">
         <v>149.0001983642578</v>
       </c>
+      <c r="J124" t="n">
+        <v>0.291016012430191</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.291016012430191</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5077,6 +6199,15 @@
       <c r="I125" t="n">
         <v>178.9998016357422</v>
       </c>
+      <c r="J125" t="n">
+        <v>0.349608987569809</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.349608987569809</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5114,6 +6245,15 @@
       <c r="I126" t="n">
         <v>184.9999389648438</v>
       </c>
+      <c r="J126" t="n">
+        <v>0.3613280057907104</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.3613280057907104</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5151,6 +6291,15 @@
       <c r="I127" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J127" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5188,6 +6337,15 @@
       <c r="I128" t="n">
         <v>176</v>
       </c>
+      <c r="J128" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="K128" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5225,6 +6383,15 @@
       <c r="I129" t="n">
         <v>160.9999389648438</v>
       </c>
+      <c r="J129" t="n">
+        <v>0.3144530057907104</v>
+      </c>
+      <c r="K129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.3144530057907104</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5262,6 +6429,15 @@
       <c r="I130" t="n">
         <v>197.0001983642578</v>
       </c>
+      <c r="J130" t="n">
+        <v>0.384766012430191</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.384766012430191</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5299,6 +6475,15 @@
       <c r="I131" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J131" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5336,6 +6521,15 @@
       <c r="I132" t="n">
         <v>161.9998779296875</v>
       </c>
+      <c r="J132" t="n">
+        <v>0.3164060115814209</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.3164060115814209</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5373,6 +6567,15 @@
       <c r="I133" t="n">
         <v>176.9999389648438</v>
       </c>
+      <c r="J133" t="n">
+        <v>0.3457030057907104</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.3457030057907104</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5410,6 +6613,15 @@
       <c r="I134" t="n">
         <v>158.0001220703125</v>
       </c>
+      <c r="J134" t="n">
+        <v>0.3085939884185791</v>
+      </c>
+      <c r="K134" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.3085939884185791</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5447,6 +6659,15 @@
       <c r="I135" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J135" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5484,6 +6705,15 @@
       <c r="I136" t="n">
         <v>160</v>
       </c>
+      <c r="J136" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K136" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5521,6 +6751,15 @@
       <c r="I137" t="n">
         <v>160</v>
       </c>
+      <c r="J137" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5558,6 +6797,15 @@
       <c r="I138" t="n">
         <v>168</v>
       </c>
+      <c r="J138" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5595,6 +6843,15 @@
       <c r="I139" t="n">
         <v>192</v>
       </c>
+      <c r="J139" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K139" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5632,6 +6889,15 @@
       <c r="I140" t="n">
         <v>178.9998016357422</v>
       </c>
+      <c r="J140" t="n">
+        <v>0.349608987569809</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.349608987569809</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5669,6 +6935,15 @@
       <c r="I141" t="n">
         <v>192</v>
       </c>
+      <c r="J141" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5706,6 +6981,15 @@
       <c r="I142" t="n">
         <v>200</v>
       </c>
+      <c r="J142" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5743,6 +7027,15 @@
       <c r="I143" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J143" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K143" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5780,6 +7073,15 @@
       <c r="I144" t="n">
         <v>170.9998016357422</v>
       </c>
+      <c r="J144" t="n">
+        <v>0.333983987569809</v>
+      </c>
+      <c r="K144" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.333983987569809</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5817,6 +7119,15 @@
       <c r="I145" t="n">
         <v>233.9998779296875</v>
       </c>
+      <c r="J145" t="n">
+        <v>0.4570310115814209</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.4570310115814209</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5854,6 +7165,15 @@
       <c r="I146" t="n">
         <v>160</v>
       </c>
+      <c r="J146" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5891,6 +7211,15 @@
       <c r="I147" t="n">
         <v>211.9997406005859</v>
       </c>
+      <c r="J147" t="n">
+        <v>0.4140619933605194</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.4140619933605194</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5928,6 +7257,15 @@
       <c r="I148" t="n">
         <v>200.9999389648438</v>
       </c>
+      <c r="J148" t="n">
+        <v>0.3925780057907104</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.3925780057907104</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5965,6 +7303,15 @@
       <c r="I149" t="n">
         <v>150.0001220703125</v>
       </c>
+      <c r="J149" t="n">
+        <v>0.2929689884185791</v>
+      </c>
+      <c r="K149" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.2929689884185791</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6002,6 +7349,15 @@
       <c r="I150" t="n">
         <v>152.9999389648438</v>
       </c>
+      <c r="J150" t="n">
+        <v>0.2988280057907104</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.2988280057907104</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6039,6 +7395,15 @@
       <c r="I151" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J151" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6076,6 +7441,15 @@
       <c r="I152" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J152" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6113,6 +7487,15 @@
       <c r="I153" t="n">
         <v>160</v>
       </c>
+      <c r="J153" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6150,6 +7533,15 @@
       <c r="I154" t="n">
         <v>190.0001220703125</v>
       </c>
+      <c r="J154" t="n">
+        <v>0.3710939884185791</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.3710939884185791</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6187,6 +7579,15 @@
       <c r="I155" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J155" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6224,6 +7625,15 @@
       <c r="I156" t="n">
         <v>160</v>
       </c>
+      <c r="J156" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6261,6 +7671,15 @@
       <c r="I157" t="n">
         <v>160</v>
       </c>
+      <c r="J157" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6298,6 +7717,15 @@
       <c r="I158" t="n">
         <v>160</v>
       </c>
+      <c r="J158" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6335,6 +7763,15 @@
       <c r="I159" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J159" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6372,6 +7809,15 @@
       <c r="I160" t="n">
         <v>176</v>
       </c>
+      <c r="J160" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6409,6 +7855,15 @@
       <c r="I161" t="n">
         <v>160</v>
       </c>
+      <c r="J161" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6446,6 +7901,15 @@
       <c r="I162" t="n">
         <v>160</v>
       </c>
+      <c r="J162" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6483,6 +7947,15 @@
       <c r="I163" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J163" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6520,6 +7993,15 @@
       <c r="I164" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J164" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K164" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6557,6 +8039,15 @@
       <c r="I165" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J165" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6594,6 +8085,15 @@
       <c r="I166" t="n">
         <v>162.9998016357422</v>
       </c>
+      <c r="J166" t="n">
+        <v>0.318358987569809</v>
+      </c>
+      <c r="K166" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.318358987569809</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6631,6 +8131,15 @@
       <c r="I167" t="n">
         <v>181.0001983642578</v>
       </c>
+      <c r="J167" t="n">
+        <v>0.353516012430191</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.353516012430191</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6668,6 +8177,15 @@
       <c r="I168" t="n">
         <v>192</v>
       </c>
+      <c r="J168" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6705,6 +8223,15 @@
       <c r="I169" t="n">
         <v>160</v>
       </c>
+      <c r="J169" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6742,6 +8269,15 @@
       <c r="I170" t="n">
         <v>210.9998016357422</v>
       </c>
+      <c r="J170" t="n">
+        <v>0.412108987569809</v>
+      </c>
+      <c r="K170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.412108987569809</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6779,6 +8315,15 @@
       <c r="I171" t="n">
         <v>200.9999389648438</v>
       </c>
+      <c r="J171" t="n">
+        <v>0.3925780057907104</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.3925780057907104</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6816,6 +8361,15 @@
       <c r="I172" t="n">
         <v>160</v>
       </c>
+      <c r="J172" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6853,6 +8407,15 @@
       <c r="I173" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J173" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6890,6 +8453,15 @@
       <c r="I174" t="n">
         <v>182.0001220703125</v>
       </c>
+      <c r="J174" t="n">
+        <v>0.3554689884185791</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.3554689884185791</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6927,6 +8499,15 @@
       <c r="I175" t="n">
         <v>161.9998779296875</v>
       </c>
+      <c r="J175" t="n">
+        <v>0.3164060115814209</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.3164060115814209</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6964,6 +8545,15 @@
       <c r="I176" t="n">
         <v>190.0001220703125</v>
       </c>
+      <c r="J176" t="n">
+        <v>0.3710939884185791</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.3710939884185791</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -7001,6 +8591,15 @@
       <c r="I177" t="n">
         <v>160</v>
       </c>
+      <c r="J177" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7038,6 +8637,15 @@
       <c r="I178" t="n">
         <v>188.0002593994141</v>
       </c>
+      <c r="J178" t="n">
+        <v>0.3671880066394806</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.3671880066394806</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -7075,6 +8683,15 @@
       <c r="I179" t="n">
         <v>126.000129699707</v>
       </c>
+      <c r="J179" t="n">
+        <v>0.2460940033197403</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.2460940033197403</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -7112,6 +8729,15 @@
       <c r="I180" t="n">
         <v>160</v>
       </c>
+      <c r="J180" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K180" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -7149,6 +8775,15 @@
       <c r="I181" t="n">
         <v>160</v>
       </c>
+      <c r="J181" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K181" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -7186,6 +8821,15 @@
       <c r="I182" t="n">
         <v>242.9998016357422</v>
       </c>
+      <c r="J182" t="n">
+        <v>0.474608987569809</v>
+      </c>
+      <c r="K182" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.474608987569809</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -7223,6 +8867,15 @@
       <c r="I183" t="n">
         <v>242.9998016357422</v>
       </c>
+      <c r="J183" t="n">
+        <v>0.474608987569809</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.474608987569809</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7260,6 +8913,15 @@
       <c r="I184" t="n">
         <v>202.9998016357422</v>
       </c>
+      <c r="J184" t="n">
+        <v>0.396483987569809</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.396483987569809</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7297,6 +8959,15 @@
       <c r="I185" t="n">
         <v>160</v>
       </c>
+      <c r="J185" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7334,6 +9005,15 @@
       <c r="I186" t="n">
         <v>170.9998016357422</v>
       </c>
+      <c r="J186" t="n">
+        <v>0.333983987569809</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.333983987569809</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7371,6 +9051,15 @@
       <c r="I187" t="n">
         <v>160</v>
       </c>
+      <c r="J187" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7408,6 +9097,15 @@
       <c r="I188" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J188" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7445,6 +9143,15 @@
       <c r="I189" t="n">
         <v>177.9998779296875</v>
       </c>
+      <c r="J189" t="n">
+        <v>0.3476560115814209</v>
+      </c>
+      <c r="K189" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.3476560115814209</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7482,6 +9189,15 @@
       <c r="I190" t="n">
         <v>200</v>
       </c>
+      <c r="J190" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K190" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7519,6 +9235,15 @@
       <c r="I191" t="n">
         <v>194.9998016357422</v>
       </c>
+      <c r="J191" t="n">
+        <v>0.380858987569809</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.380858987569809</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7556,6 +9281,15 @@
       <c r="I192" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J192" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K192" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7593,6 +9327,15 @@
       <c r="I193" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J193" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7630,6 +9373,15 @@
       <c r="I194" t="n">
         <v>192</v>
       </c>
+      <c r="J194" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7667,6 +9419,15 @@
       <c r="I195" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J195" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K195" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7704,6 +9465,15 @@
       <c r="I196" t="n">
         <v>131.9997406005859</v>
       </c>
+      <c r="J196" t="n">
+        <v>0.2578119933605194</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.2578119933605194</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7741,6 +9511,15 @@
       <c r="I197" t="n">
         <v>115.9997406005859</v>
       </c>
+      <c r="J197" t="n">
+        <v>0.2265619933605194</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.2265619933605194</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7778,6 +9557,15 @@
       <c r="I198" t="n">
         <v>165.0001983642578</v>
       </c>
+      <c r="J198" t="n">
+        <v>0.322266012430191</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.322266012430191</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7815,6 +9603,15 @@
       <c r="I199" t="n">
         <v>195.9997406005859</v>
       </c>
+      <c r="J199" t="n">
+        <v>0.3828119933605194</v>
+      </c>
+      <c r="K199" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.3828119933605194</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7852,6 +9649,15 @@
       <c r="I200" t="n">
         <v>168.9999389648438</v>
       </c>
+      <c r="J200" t="n">
+        <v>0.3300780057907104</v>
+      </c>
+      <c r="K200" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.3300780057907104</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7889,6 +9695,15 @@
       <c r="I201" t="n">
         <v>259.999755859375</v>
       </c>
+      <c r="J201" t="n">
+        <v>0.5078120231628418</v>
+      </c>
+      <c r="K201" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.5078120231628418</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7926,6 +9741,15 @@
       <c r="I202" t="n">
         <v>214.0001220703125</v>
       </c>
+      <c r="J202" t="n">
+        <v>0.4179689884185791</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.4179689884185791</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7963,6 +9787,15 @@
       <c r="I203" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J203" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K203" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -8000,6 +9833,15 @@
       <c r="I204" t="n">
         <v>206.0001220703125</v>
       </c>
+      <c r="J204" t="n">
+        <v>0.4023439884185791</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.4023439884185791</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -8037,6 +9879,15 @@
       <c r="I205" t="n">
         <v>188.0002593994141</v>
       </c>
+      <c r="J205" t="n">
+        <v>0.3671880066394806</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.3671880066394806</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -8074,6 +9925,15 @@
       <c r="I206" t="n">
         <v>220.0002593994141</v>
       </c>
+      <c r="J206" t="n">
+        <v>0.4296880066394806</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.4296880066394806</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -8111,6 +9971,15 @@
       <c r="I207" t="n">
         <v>163.9997406005859</v>
       </c>
+      <c r="J207" t="n">
+        <v>0.3203119933605194</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.3203119933605194</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -8148,6 +10017,15 @@
       <c r="I208" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J208" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -8185,6 +10063,15 @@
       <c r="I209" t="n">
         <v>160</v>
       </c>
+      <c r="J209" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K209" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8222,6 +10109,15 @@
       <c r="I210" t="n">
         <v>210.9998016357422</v>
       </c>
+      <c r="J210" t="n">
+        <v>0.412108987569809</v>
+      </c>
+      <c r="K210" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.412108987569809</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8259,6 +10155,15 @@
       <c r="I211" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J211" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K211" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8296,6 +10201,15 @@
       <c r="I212" t="n">
         <v>160</v>
       </c>
+      <c r="J212" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K212" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8333,6 +10247,15 @@
       <c r="I213" t="n">
         <v>204.0002593994141</v>
       </c>
+      <c r="J213" t="n">
+        <v>0.3984380066394806</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.3984380066394806</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8370,6 +10293,15 @@
       <c r="I214" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J214" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8407,6 +10339,15 @@
       <c r="I215" t="n">
         <v>188.0002593994141</v>
       </c>
+      <c r="J215" t="n">
+        <v>0.3671880066394806</v>
+      </c>
+      <c r="K215" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.3671880066394806</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8444,6 +10385,15 @@
       <c r="I216" t="n">
         <v>200</v>
       </c>
+      <c r="J216" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K216" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8481,6 +10431,15 @@
       <c r="I217" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J217" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8518,6 +10477,15 @@
       <c r="I218" t="n">
         <v>173.0001983642578</v>
       </c>
+      <c r="J218" t="n">
+        <v>0.337891012430191</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.337891012430191</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8555,6 +10523,15 @@
       <c r="I219" t="n">
         <v>160</v>
       </c>
+      <c r="J219" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K219" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8592,6 +10569,15 @@
       <c r="I220" t="n">
         <v>146.9998016357422</v>
       </c>
+      <c r="J220" t="n">
+        <v>0.287108987569809</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.287108987569809</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8629,6 +10615,15 @@
       <c r="I221" t="n">
         <v>168.9999389648438</v>
       </c>
+      <c r="J221" t="n">
+        <v>0.3300780057907104</v>
+      </c>
+      <c r="K221" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.3300780057907104</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8666,6 +10661,15 @@
       <c r="I222" t="n">
         <v>208.9999389648438</v>
       </c>
+      <c r="J222" t="n">
+        <v>0.4082030057907104</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.4082030057907104</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8703,6 +10707,15 @@
       <c r="I223" t="n">
         <v>200.9999389648438</v>
       </c>
+      <c r="J223" t="n">
+        <v>0.3925780057907104</v>
+      </c>
+      <c r="K223" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.3925780057907104</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8740,6 +10753,15 @@
       <c r="I224" t="n">
         <v>160</v>
       </c>
+      <c r="J224" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K224" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8777,6 +10799,15 @@
       <c r="I225" t="n">
         <v>167.0000610351562</v>
       </c>
+      <c r="J225" t="n">
+        <v>0.3261719942092896</v>
+      </c>
+      <c r="K225" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.3261719942092896</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8814,6 +10845,15 @@
       <c r="I226" t="n">
         <v>172.0002593994141</v>
       </c>
+      <c r="J226" t="n">
+        <v>0.3359380066394806</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.3359380066394806</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8851,6 +10891,15 @@
       <c r="I227" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J227" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K227" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8888,6 +10937,15 @@
       <c r="I228" t="n">
         <v>178.9998016357422</v>
       </c>
+      <c r="J228" t="n">
+        <v>0.349608987569809</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.349608987569809</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8925,6 +10983,15 @@
       <c r="I229" t="n">
         <v>168.9999389648438</v>
       </c>
+      <c r="J229" t="n">
+        <v>0.3300780057907104</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.3300780057907104</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8962,6 +11029,15 @@
       <c r="I230" t="n">
         <v>160</v>
       </c>
+      <c r="J230" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8999,6 +11075,15 @@
       <c r="I231" t="n">
         <v>160.9999389648438</v>
       </c>
+      <c r="J231" t="n">
+        <v>0.3144530057907104</v>
+      </c>
+      <c r="K231" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.3144530057907104</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -9036,6 +11121,15 @@
       <c r="I232" t="n">
         <v>173.0001983642578</v>
       </c>
+      <c r="J232" t="n">
+        <v>0.337891012430191</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.337891012430191</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9073,6 +11167,15 @@
       <c r="I233" t="n">
         <v>151.0000610351562</v>
       </c>
+      <c r="J233" t="n">
+        <v>0.2949219942092896</v>
+      </c>
+      <c r="K233" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.2949219942092896</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9110,6 +11213,15 @@
       <c r="I234" t="n">
         <v>193.9998779296875</v>
       </c>
+      <c r="J234" t="n">
+        <v>0.3789060115814209</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.3789060115814209</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9147,6 +11259,15 @@
       <c r="I235" t="n">
         <v>162.9998016357422</v>
       </c>
+      <c r="J235" t="n">
+        <v>0.318358987569809</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.318358987569809</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9184,6 +11305,15 @@
       <c r="I236" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J236" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K236" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L236" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9221,6 +11351,15 @@
       <c r="I237" t="n">
         <v>236.0002593994141</v>
       </c>
+      <c r="J237" t="n">
+        <v>0.4609380066394806</v>
+      </c>
+      <c r="K237" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L237" t="n">
+        <v>0.4609380066394806</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9258,6 +11397,15 @@
       <c r="I238" t="n">
         <v>214.0001220703125</v>
       </c>
+      <c r="J238" t="n">
+        <v>0.4179689884185791</v>
+      </c>
+      <c r="K238" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L238" t="n">
+        <v>0.4179689884185791</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9295,6 +11443,15 @@
       <c r="I239" t="n">
         <v>158.0001220703125</v>
       </c>
+      <c r="J239" t="n">
+        <v>0.3085939884185791</v>
+      </c>
+      <c r="K239" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L239" t="n">
+        <v>0.3085939884185791</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9332,6 +11489,15 @@
       <c r="I240" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J240" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K240" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L240" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9369,6 +11535,15 @@
       <c r="I241" t="n">
         <v>160</v>
       </c>
+      <c r="J241" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K241" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L241" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9406,6 +11581,15 @@
       <c r="I242" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J242" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L242" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9443,6 +11627,15 @@
       <c r="I243" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J243" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K243" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L243" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9480,6 +11673,15 @@
       <c r="I244" t="n">
         <v>160</v>
       </c>
+      <c r="J244" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K244" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L244" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9517,6 +11719,15 @@
       <c r="I245" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J245" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L245" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9554,6 +11765,15 @@
       <c r="I246" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J246" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K246" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L246" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9591,6 +11811,15 @@
       <c r="I247" t="n">
         <v>160</v>
       </c>
+      <c r="J247" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K247" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L247" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9628,6 +11857,15 @@
       <c r="I248" t="n">
         <v>160</v>
       </c>
+      <c r="J248" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K248" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L248" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9665,6 +11903,15 @@
       <c r="I249" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J249" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K249" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L249" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9702,6 +11949,15 @@
       <c r="I250" t="n">
         <v>163.9997406005859</v>
       </c>
+      <c r="J250" t="n">
+        <v>0.3203119933605194</v>
+      </c>
+      <c r="K250" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L250" t="n">
+        <v>0.3203119933605194</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9739,6 +11995,15 @@
       <c r="I251" t="n">
         <v>160</v>
       </c>
+      <c r="J251" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K251" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L251" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9776,6 +12041,15 @@
       <c r="I252" t="n">
         <v>160</v>
       </c>
+      <c r="J252" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K252" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L252" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9813,6 +12087,15 @@
       <c r="I253" t="n">
         <v>153.9998779296875</v>
       </c>
+      <c r="J253" t="n">
+        <v>0.3007810115814209</v>
+      </c>
+      <c r="K253" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L253" t="n">
+        <v>0.3007810115814209</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9850,6 +12133,15 @@
       <c r="I254" t="n">
         <v>197.0001983642578</v>
       </c>
+      <c r="J254" t="n">
+        <v>0.384766012430191</v>
+      </c>
+      <c r="K254" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L254" t="n">
+        <v>0.384766012430191</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9887,6 +12179,15 @@
       <c r="I255" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J255" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L255" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9924,6 +12225,15 @@
       <c r="I256" t="n">
         <v>220.0002593994141</v>
       </c>
+      <c r="J256" t="n">
+        <v>0.4296880066394806</v>
+      </c>
+      <c r="K256" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L256" t="n">
+        <v>0.4296880066394806</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -9961,6 +12271,15 @@
       <c r="I257" t="n">
         <v>238.0001220703125</v>
       </c>
+      <c r="J257" t="n">
+        <v>0.4648439884185791</v>
+      </c>
+      <c r="K257" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L257" t="n">
+        <v>0.4648439884185791</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -9998,6 +12317,15 @@
       <c r="I258" t="n">
         <v>160</v>
       </c>
+      <c r="J258" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K258" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L258" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10035,6 +12363,15 @@
       <c r="I259" t="n">
         <v>201.9998779296875</v>
       </c>
+      <c r="J259" t="n">
+        <v>0.3945310115814209</v>
+      </c>
+      <c r="K259" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L259" t="n">
+        <v>0.3945310115814209</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10072,6 +12409,15 @@
       <c r="I260" t="n">
         <v>160</v>
       </c>
+      <c r="J260" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K260" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L260" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10109,6 +12455,15 @@
       <c r="I261" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J261" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K261" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L261" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10146,6 +12501,15 @@
       <c r="I262" t="n">
         <v>141.0001983642578</v>
       </c>
+      <c r="J262" t="n">
+        <v>0.275391012430191</v>
+      </c>
+      <c r="K262" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L262" t="n">
+        <v>0.275391012430191</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10183,6 +12547,15 @@
       <c r="I263" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J263" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K263" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L263" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10220,6 +12593,15 @@
       <c r="I264" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J264" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L264" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10257,6 +12639,15 @@
       <c r="I265" t="n">
         <v>160</v>
       </c>
+      <c r="J265" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K265" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L265" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10294,6 +12685,15 @@
       <c r="I266" t="n">
         <v>170.9998016357422</v>
       </c>
+      <c r="J266" t="n">
+        <v>0.333983987569809</v>
+      </c>
+      <c r="K266" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L266" t="n">
+        <v>0.333983987569809</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10331,6 +12731,15 @@
       <c r="I267" t="n">
         <v>183.0000610351562</v>
       </c>
+      <c r="J267" t="n">
+        <v>0.3574219942092896</v>
+      </c>
+      <c r="K267" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L267" t="n">
+        <v>0.3574219942092896</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10368,6 +12777,15 @@
       <c r="I268" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J268" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K268" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L268" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10405,6 +12823,15 @@
       <c r="I269" t="n">
         <v>200</v>
       </c>
+      <c r="J269" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K269" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L269" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10442,6 +12869,15 @@
       <c r="I270" t="n">
         <v>149.0001983642578</v>
       </c>
+      <c r="J270" t="n">
+        <v>0.291016012430191</v>
+      </c>
+      <c r="K270" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L270" t="n">
+        <v>0.291016012430191</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10479,6 +12915,15 @@
       <c r="I271" t="n">
         <v>149.0001983642578</v>
       </c>
+      <c r="J271" t="n">
+        <v>0.291016012430191</v>
+      </c>
+      <c r="K271" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L271" t="n">
+        <v>0.291016012430191</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10516,6 +12961,15 @@
       <c r="I272" t="n">
         <v>127.0000610351562</v>
       </c>
+      <c r="J272" t="n">
+        <v>0.2480469942092896</v>
+      </c>
+      <c r="K272" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L272" t="n">
+        <v>0.2480469942092896</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10553,6 +13007,15 @@
       <c r="I273" t="n">
         <v>120</v>
       </c>
+      <c r="J273" t="n">
+        <v>0.234375</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="L273" t="n">
+        <v>0.234375</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10590,6 +13053,15 @@
       <c r="I274" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J274" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K274" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L274" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10627,6 +13099,15 @@
       <c r="I275" t="n">
         <v>160</v>
       </c>
+      <c r="J275" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K275" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L275" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
@@ -10664,6 +13145,15 @@
       <c r="I276" t="n">
         <v>160</v>
       </c>
+      <c r="J276" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K276" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L276" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
@@ -10701,6 +13191,15 @@
       <c r="I277" t="n">
         <v>200.9999389648438</v>
       </c>
+      <c r="J277" t="n">
+        <v>0.3925780057907104</v>
+      </c>
+      <c r="K277" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L277" t="n">
+        <v>0.3925780057907104</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -10738,6 +13237,15 @@
       <c r="I278" t="n">
         <v>192.9999389648438</v>
       </c>
+      <c r="J278" t="n">
+        <v>0.3769530057907104</v>
+      </c>
+      <c r="K278" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L278" t="n">
+        <v>0.3769530057907104</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10775,6 +13283,15 @@
       <c r="I279" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J279" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K279" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L279" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10812,6 +13329,15 @@
       <c r="I280" t="n">
         <v>160</v>
       </c>
+      <c r="J280" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K280" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L280" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10849,6 +13375,15 @@
       <c r="I281" t="n">
         <v>160</v>
       </c>
+      <c r="J281" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K281" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L281" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -10886,6 +13421,15 @@
       <c r="I282" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J282" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K282" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L282" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -10923,6 +13467,15 @@
       <c r="I283" t="n">
         <v>184</v>
       </c>
+      <c r="J283" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="K283" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L283" t="n">
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -10960,6 +13513,15 @@
       <c r="I284" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J284" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K284" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L284" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -10997,6 +13559,15 @@
       <c r="I285" t="n">
         <v>206.0001220703125</v>
       </c>
+      <c r="J285" t="n">
+        <v>0.4023439884185791</v>
+      </c>
+      <c r="K285" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L285" t="n">
+        <v>0.4023439884185791</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11034,6 +13605,15 @@
       <c r="I286" t="n">
         <v>200.9999389648438</v>
       </c>
+      <c r="J286" t="n">
+        <v>0.3925780057907104</v>
+      </c>
+      <c r="K286" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L286" t="n">
+        <v>0.3925780057907104</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11071,6 +13651,15 @@
       <c r="I287" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J287" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K287" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L287" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11108,6 +13697,15 @@
       <c r="I288" t="n">
         <v>191.0000610351562</v>
       </c>
+      <c r="J288" t="n">
+        <v>0.3730469942092896</v>
+      </c>
+      <c r="K288" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L288" t="n">
+        <v>0.3730469942092896</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11145,6 +13743,15 @@
       <c r="I289" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J289" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K289" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L289" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11182,6 +13789,15 @@
       <c r="I290" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J290" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K290" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L290" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11219,6 +13835,15 @@
       <c r="I291" t="n">
         <v>198.0001220703125</v>
       </c>
+      <c r="J291" t="n">
+        <v>0.3867189884185791</v>
+      </c>
+      <c r="K291" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L291" t="n">
+        <v>0.3867189884185791</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11256,6 +13881,15 @@
       <c r="I292" t="n">
         <v>160</v>
       </c>
+      <c r="J292" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K292" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L292" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11293,6 +13927,15 @@
       <c r="I293" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J293" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K293" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L293" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11330,6 +13973,15 @@
       <c r="I294" t="n">
         <v>160</v>
       </c>
+      <c r="J294" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K294" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L294" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11367,6 +14019,15 @@
       <c r="I295" t="n">
         <v>160</v>
       </c>
+      <c r="J295" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K295" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L295" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11404,6 +14065,15 @@
       <c r="I296" t="n">
         <v>184</v>
       </c>
+      <c r="J296" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="K296" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L296" t="n">
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11441,6 +14111,15 @@
       <c r="I297" t="n">
         <v>160</v>
       </c>
+      <c r="J297" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K297" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L297" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11478,6 +14157,15 @@
       <c r="I298" t="n">
         <v>184</v>
       </c>
+      <c r="J298" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="K298" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L298" t="n">
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11515,6 +14203,15 @@
       <c r="I299" t="n">
         <v>186.9998016357422</v>
       </c>
+      <c r="J299" t="n">
+        <v>0.365233987569809</v>
+      </c>
+      <c r="K299" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L299" t="n">
+        <v>0.365233987569809</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11552,6 +14249,15 @@
       <c r="I300" t="n">
         <v>160</v>
       </c>
+      <c r="J300" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K300" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L300" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11589,6 +14295,15 @@
       <c r="I301" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J301" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K301" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L301" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11626,6 +14341,15 @@
       <c r="I302" t="n">
         <v>199.0000610351562</v>
       </c>
+      <c r="J302" t="n">
+        <v>0.3886719942092896</v>
+      </c>
+      <c r="K302" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L302" t="n">
+        <v>0.3886719942092896</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11663,6 +14387,15 @@
       <c r="I303" t="n">
         <v>144</v>
       </c>
+      <c r="J303" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="K303" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L303" t="n">
+        <v>0.28125</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11700,6 +14433,15 @@
       <c r="I304" t="n">
         <v>143.0000610351562</v>
       </c>
+      <c r="J304" t="n">
+        <v>0.2792969942092896</v>
+      </c>
+      <c r="K304" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L304" t="n">
+        <v>0.2792969942092896</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11737,6 +14479,15 @@
       <c r="I305" t="n">
         <v>200</v>
       </c>
+      <c r="J305" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K305" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L305" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11774,6 +14525,15 @@
       <c r="I306" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J306" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K306" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L306" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11811,6 +14571,15 @@
       <c r="I307" t="n">
         <v>189.0001983642578</v>
       </c>
+      <c r="J307" t="n">
+        <v>0.369141012430191</v>
+      </c>
+      <c r="K307" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L307" t="n">
+        <v>0.369141012430191</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11848,6 +14617,15 @@
       <c r="I308" t="n">
         <v>185.9998779296875</v>
       </c>
+      <c r="J308" t="n">
+        <v>0.3632810115814209</v>
+      </c>
+      <c r="K308" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L308" t="n">
+        <v>0.3632810115814209</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11885,6 +14663,15 @@
       <c r="I309" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J309" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K309" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L309" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -11922,6 +14709,15 @@
       <c r="I310" t="n">
         <v>165.0001983642578</v>
       </c>
+      <c r="J310" t="n">
+        <v>0.322266012430191</v>
+      </c>
+      <c r="K310" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L310" t="n">
+        <v>0.322266012430191</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -11959,6 +14755,15 @@
       <c r="I311" t="n">
         <v>162.9998016357422</v>
       </c>
+      <c r="J311" t="n">
+        <v>0.318358987569809</v>
+      </c>
+      <c r="K311" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L311" t="n">
+        <v>0.318358987569809</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -11996,6 +14801,15 @@
       <c r="I312" t="n">
         <v>153.9998779296875</v>
       </c>
+      <c r="J312" t="n">
+        <v>0.3007810115814209</v>
+      </c>
+      <c r="K312" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L312" t="n">
+        <v>0.3007810115814209</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12033,6 +14847,15 @@
       <c r="I313" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J313" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K313" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L313" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12070,6 +14893,15 @@
       <c r="I314" t="n">
         <v>220.0002593994141</v>
       </c>
+      <c r="J314" t="n">
+        <v>0.4296880066394806</v>
+      </c>
+      <c r="K314" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L314" t="n">
+        <v>0.4296880066394806</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12107,6 +14939,15 @@
       <c r="I315" t="n">
         <v>206.0001220703125</v>
       </c>
+      <c r="J315" t="n">
+        <v>0.4023439884185791</v>
+      </c>
+      <c r="K315" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L315" t="n">
+        <v>0.4023439884185791</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12144,6 +14985,15 @@
       <c r="I316" t="n">
         <v>160</v>
       </c>
+      <c r="J316" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K316" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L316" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12181,6 +15031,15 @@
       <c r="I317" t="n">
         <v>160</v>
       </c>
+      <c r="J317" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K317" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L317" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12218,6 +15077,15 @@
       <c r="I318" t="n">
         <v>160</v>
       </c>
+      <c r="J318" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K318" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L318" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12255,6 +15123,15 @@
       <c r="I319" t="n">
         <v>213.0001983642578</v>
       </c>
+      <c r="J319" t="n">
+        <v>0.416016012430191</v>
+      </c>
+      <c r="K319" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L319" t="n">
+        <v>0.416016012430191</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12292,6 +15169,15 @@
       <c r="I320" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J320" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K320" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L320" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12329,6 +15215,15 @@
       <c r="I321" t="n">
         <v>160</v>
       </c>
+      <c r="J321" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K321" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L321" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12366,6 +15261,15 @@
       <c r="I322" t="n">
         <v>188.0002593994141</v>
       </c>
+      <c r="J322" t="n">
+        <v>0.3671880066394806</v>
+      </c>
+      <c r="K322" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L322" t="n">
+        <v>0.3671880066394806</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12403,6 +15307,15 @@
       <c r="I323" t="n">
         <v>160</v>
       </c>
+      <c r="J323" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K323" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L323" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12440,6 +15353,15 @@
       <c r="I324" t="n">
         <v>160</v>
       </c>
+      <c r="J324" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K324" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L324" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
@@ -12477,6 +15399,15 @@
       <c r="I325" t="n">
         <v>158.0001220703125</v>
       </c>
+      <c r="J325" t="n">
+        <v>0.3085939884185791</v>
+      </c>
+      <c r="K325" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L325" t="n">
+        <v>0.3085939884185791</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
@@ -12514,6 +15445,15 @@
       <c r="I326" t="n">
         <v>191.0000610351562</v>
       </c>
+      <c r="J326" t="n">
+        <v>0.3730469942092896</v>
+      </c>
+      <c r="K326" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L326" t="n">
+        <v>0.3730469942092896</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
@@ -12551,6 +15491,15 @@
       <c r="I327" t="n">
         <v>160</v>
       </c>
+      <c r="J327" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K327" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L327" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
@@ -12588,6 +15537,15 @@
       <c r="I328" t="n">
         <v>176.9999389648438</v>
       </c>
+      <c r="J328" t="n">
+        <v>0.3457030057907104</v>
+      </c>
+      <c r="K328" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L328" t="n">
+        <v>0.3457030057907104</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
@@ -12625,6 +15583,15 @@
       <c r="I329" t="n">
         <v>186.9998016357422</v>
       </c>
+      <c r="J329" t="n">
+        <v>0.365233987569809</v>
+      </c>
+      <c r="K329" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L329" t="n">
+        <v>0.365233987569809</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
@@ -12662,6 +15629,15 @@
       <c r="I330" t="n">
         <v>208</v>
       </c>
+      <c r="J330" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="K330" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L330" t="n">
+        <v>0.40625</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
@@ -12699,6 +15675,15 @@
       <c r="I331" t="n">
         <v>192.9999389648438</v>
       </c>
+      <c r="J331" t="n">
+        <v>0.3769530057907104</v>
+      </c>
+      <c r="K331" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L331" t="n">
+        <v>0.3769530057907104</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
@@ -12736,6 +15721,15 @@
       <c r="I332" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J332" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K332" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L332" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
@@ -12773,6 +15767,15 @@
       <c r="I333" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J333" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K333" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L333" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
@@ -12810,6 +15813,15 @@
       <c r="I334" t="n">
         <v>195.9997406005859</v>
       </c>
+      <c r="J334" t="n">
+        <v>0.3828119933605194</v>
+      </c>
+      <c r="K334" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L334" t="n">
+        <v>0.3828119933605194</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
@@ -12847,6 +15859,15 @@
       <c r="I335" t="n">
         <v>185.9998779296875</v>
       </c>
+      <c r="J335" t="n">
+        <v>0.3632810115814209</v>
+      </c>
+      <c r="K335" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L335" t="n">
+        <v>0.3632810115814209</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
@@ -12884,6 +15905,15 @@
       <c r="I336" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J336" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K336" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L336" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
@@ -12921,6 +15951,15 @@
       <c r="I337" t="n">
         <v>156.0002593994141</v>
       </c>
+      <c r="J337" t="n">
+        <v>0.3046880066394806</v>
+      </c>
+      <c r="K337" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L337" t="n">
+        <v>0.3046880066394806</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
@@ -12958,6 +15997,15 @@
       <c r="I338" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J338" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K338" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L338" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
@@ -12995,6 +16043,15 @@
       <c r="I339" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J339" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K339" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L339" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
@@ -13032,6 +16089,15 @@
       <c r="I340" t="n">
         <v>199.0000610351562</v>
       </c>
+      <c r="J340" t="n">
+        <v>0.3886719942092896</v>
+      </c>
+      <c r="K340" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L340" t="n">
+        <v>0.3886719942092896</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
@@ -13069,6 +16135,15 @@
       <c r="I341" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J341" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K341" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L341" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
@@ -13106,6 +16181,15 @@
       <c r="I342" t="n">
         <v>225.9998779296875</v>
       </c>
+      <c r="J342" t="n">
+        <v>0.4414060115814209</v>
+      </c>
+      <c r="K342" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L342" t="n">
+        <v>0.4414060115814209</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
@@ -13143,6 +16227,15 @@
       <c r="I343" t="n">
         <v>160</v>
       </c>
+      <c r="J343" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K343" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L343" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
@@ -13180,6 +16273,15 @@
       <c r="I344" t="n">
         <v>160</v>
       </c>
+      <c r="J344" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K344" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L344" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
@@ -13217,6 +16319,15 @@
       <c r="I345" t="n">
         <v>159.0000610351562</v>
       </c>
+      <c r="J345" t="n">
+        <v>0.3105469942092896</v>
+      </c>
+      <c r="K345" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L345" t="n">
+        <v>0.3105469942092896</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
@@ -13254,6 +16365,15 @@
       <c r="I346" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J346" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K346" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L346" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
@@ -13291,6 +16411,15 @@
       <c r="I347" t="n">
         <v>150.0001220703125</v>
       </c>
+      <c r="J347" t="n">
+        <v>0.2929689884185791</v>
+      </c>
+      <c r="K347" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L347" t="n">
+        <v>0.2929689884185791</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
@@ -13328,6 +16457,15 @@
       <c r="I348" t="n">
         <v>225.9998779296875</v>
       </c>
+      <c r="J348" t="n">
+        <v>0.4414060115814209</v>
+      </c>
+      <c r="K348" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L348" t="n">
+        <v>0.4414060115814209</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
@@ -13365,6 +16503,15 @@
       <c r="I349" t="n">
         <v>186.9998016357422</v>
       </c>
+      <c r="J349" t="n">
+        <v>0.365233987569809</v>
+      </c>
+      <c r="K349" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L349" t="n">
+        <v>0.365233987569809</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
@@ -13402,6 +16549,15 @@
       <c r="I350" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J350" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K350" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L350" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
@@ -13439,6 +16595,15 @@
       <c r="I351" t="n">
         <v>176.9999389648438</v>
       </c>
+      <c r="J351" t="n">
+        <v>0.3457030057907104</v>
+      </c>
+      <c r="K351" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L351" t="n">
+        <v>0.3457030057907104</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
@@ -13476,6 +16641,15 @@
       <c r="I352" t="n">
         <v>232</v>
       </c>
+      <c r="J352" t="n">
+        <v>0.453125</v>
+      </c>
+      <c r="K352" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L352" t="n">
+        <v>0.453125</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
@@ -13513,6 +16687,15 @@
       <c r="I353" t="n">
         <v>160</v>
       </c>
+      <c r="J353" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K353" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L353" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
@@ -13550,6 +16733,15 @@
       <c r="I354" t="n">
         <v>160</v>
       </c>
+      <c r="J354" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K354" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L354" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
@@ -13587,6 +16779,15 @@
       <c r="I355" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J355" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K355" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L355" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
@@ -13624,6 +16825,15 @@
       <c r="I356" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J356" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K356" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L356" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
@@ -13661,6 +16871,15 @@
       <c r="I357" t="n">
         <v>195.9997406005859</v>
       </c>
+      <c r="J357" t="n">
+        <v>0.3828119933605194</v>
+      </c>
+      <c r="K357" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L357" t="n">
+        <v>0.3828119933605194</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
@@ -13698,6 +16917,15 @@
       <c r="I358" t="n">
         <v>126.000129699707</v>
       </c>
+      <c r="J358" t="n">
+        <v>0.2460940033197403</v>
+      </c>
+      <c r="K358" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L358" t="n">
+        <v>0.2460940033197403</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
@@ -13735,6 +16963,15 @@
       <c r="I359" t="n">
         <v>160</v>
       </c>
+      <c r="J359" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K359" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L359" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
@@ -13771,6 +17008,15 @@
       </c>
       <c r="I360" t="n">
         <v>198.0001220703125</v>
+      </c>
+      <c r="J360" t="n">
+        <v>0.3867189884185791</v>
+      </c>
+      <c r="K360" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L360" t="n">
+        <v>0.3867189884185791</v>
       </c>
     </row>
   </sheetData>
@@ -14098,7 +17344,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I235"/>
+  <dimension ref="A1:L235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14147,6 +17393,21 @@
           <t>Left_right</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Anteroposterior_delta</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Craniocaudal_delta</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Left_right_delta</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -14184,6 +17445,15 @@
       <c r="I2" t="n">
         <v>423.54688</v>
       </c>
+      <c r="J2" t="n">
+        <v>0.41362</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.4506</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.41362</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -14221,6 +17491,15 @@
       <c r="I3" t="n">
         <v>442.43968</v>
       </c>
+      <c r="J3" t="n">
+        <v>0.43207</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1.2895</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.43207</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -14258,6 +17537,15 @@
       <c r="I4" t="n">
         <v>553.6768</v>
       </c>
+      <c r="J4" t="n">
+        <v>0.5407</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1.1924</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5407</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -14295,6 +17583,15 @@
       <c r="I5" t="n">
         <v>432.68096</v>
       </c>
+      <c r="J5" t="n">
+        <v>0.42254</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1.2837</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.42254</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -14332,6 +17629,15 @@
       <c r="I6" t="n">
         <v>508.20096</v>
       </c>
+      <c r="J6" t="n">
+        <v>0.49629</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.8919</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.49629</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -14369,6 +17675,15 @@
       <c r="I7" t="n">
         <v>295.5264</v>
       </c>
+      <c r="J7" t="n">
+        <v>0.2886</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.6686</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.2886</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -14406,6 +17721,15 @@
       <c r="I8" t="n">
         <v>485.71392</v>
       </c>
+      <c r="J8" t="n">
+        <v>0.47433</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.7593</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.47433</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -14443,6 +17767,15 @@
       <c r="I9" t="n">
         <v>410.99776</v>
       </c>
+      <c r="J9" t="n">
+        <v>0.8027300000000001</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1.1215</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.8027300000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -14480,6 +17813,15 @@
       <c r="I10" t="n">
         <v>403.26144</v>
       </c>
+      <c r="J10" t="n">
+        <v>0.39381</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.1052</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.39381</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -14517,6 +17859,15 @@
       <c r="I11" t="n">
         <v>368.78336</v>
       </c>
+      <c r="J11" t="n">
+        <v>0.36014</v>
+      </c>
+      <c r="K11" t="n">
+        <v>1.1755</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.36014</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -14554,6 +17905,15 @@
       <c r="I12" t="n">
         <v>318.77632</v>
       </c>
+      <c r="J12" t="n">
+        <v>0.62261</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1.3286</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.62261</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -14591,6 +17951,15 @@
       <c r="I13" t="n">
         <v>313.61024</v>
       </c>
+      <c r="J13" t="n">
+        <v>0.30626</v>
+      </c>
+      <c r="K13" t="n">
+        <v>1.7025</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.30626</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -14628,6 +17997,15 @@
       <c r="I14" t="n">
         <v>337.2032</v>
       </c>
+      <c r="J14" t="n">
+        <v>0.3293</v>
+      </c>
+      <c r="K14" t="n">
+        <v>1.8129</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0.3293</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -14665,6 +18043,15 @@
       <c r="I15" t="n">
         <v>557.16864</v>
       </c>
+      <c r="J15" t="n">
+        <v>0.54411</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1.3069</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.54411</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -14702,6 +18089,15 @@
       <c r="I16" t="n">
         <v>403.95776</v>
       </c>
+      <c r="J16" t="n">
+        <v>0.39449</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1.1164</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.39449</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -14739,6 +18135,15 @@
       <c r="I17" t="n">
         <v>588.65664</v>
       </c>
+      <c r="J17" t="n">
+        <v>0.57486</v>
+      </c>
+      <c r="K17" t="n">
+        <v>1.1101</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.57486</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -14776,6 +18181,15 @@
       <c r="I18" t="n">
         <v>386.77504</v>
       </c>
+      <c r="J18" t="n">
+        <v>0.37771</v>
+      </c>
+      <c r="K18" t="n">
+        <v>1.1901</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.37771</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -14813,6 +18227,15 @@
       <c r="I19" t="n">
         <v>358.28736</v>
       </c>
+      <c r="J19" t="n">
+        <v>0.34989</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1.3407</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.34989</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -14850,6 +18273,15 @@
       <c r="I20" t="n">
         <v>457.728</v>
       </c>
+      <c r="J20" t="n">
+        <v>0.447</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.0408</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.447</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -14887,6 +18319,15 @@
       <c r="I21" t="n">
         <v>336.09728</v>
       </c>
+      <c r="J21" t="n">
+        <v>0.32822</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1.6017</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0.32822</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -14924,6 +18365,15 @@
       <c r="I22" t="n">
         <v>310.2208</v>
       </c>
+      <c r="J22" t="n">
+        <v>0.30295</v>
+      </c>
+      <c r="K22" t="n">
+        <v>1.6071</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0.30295</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -14961,6 +18411,15 @@
       <c r="I23" t="n">
         <v>313.81504</v>
       </c>
+      <c r="J23" t="n">
+        <v>0.30646</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.0214</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0.30646</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -14998,6 +18457,15 @@
       <c r="I24" t="n">
         <v>361.78944</v>
       </c>
+      <c r="J24" t="n">
+        <v>0.35331</v>
+      </c>
+      <c r="K24" t="n">
+        <v>1.3045</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0.35331</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -15035,6 +18503,15 @@
       <c r="I25" t="n">
         <v>352.9984</v>
       </c>
+      <c r="J25" t="n">
+        <v>0.68945</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.0198</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.68945</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -15072,6 +18549,15 @@
       <c r="I26" t="n">
         <v>651.61216</v>
       </c>
+      <c r="J26" t="n">
+        <v>0.63634</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1.4349</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.63634</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -15111,6 +18597,15 @@
       <c r="I27" t="n">
         <v>77.0000166</v>
       </c>
+      <c r="J27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="L27" t="n">
+        <v>3.85000083</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -15150,6 +18645,15 @@
       <c r="I28" t="n">
         <v>60</v>
       </c>
+      <c r="J28" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -15189,6 +18693,15 @@
       <c r="I29" t="n">
         <v>82.5000115</v>
       </c>
+      <c r="J29" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="K29" t="n">
+        <v>1.1875</v>
+      </c>
+      <c r="L29" t="n">
+        <v>3.30000046</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
@@ -15228,6 +18741,15 @@
       <c r="I30" t="n">
         <v>102.3000031</v>
       </c>
+      <c r="J30" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="K30" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="L30" t="n">
+        <v>3.3000001</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -15267,6 +18789,15 @@
       <c r="I31" t="n">
         <v>60</v>
       </c>
+      <c r="J31" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0.7030999999999999</v>
+      </c>
+      <c r="L31" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -15306,6 +18837,15 @@
       <c r="I32" t="n">
         <v>61.60004288</v>
       </c>
+      <c r="J32" t="n">
+        <v>0.470085472</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0.470085472</v>
+      </c>
+      <c r="L32" t="n">
+        <v>3.85000268</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -15345,6 +18885,15 @@
       <c r="I33" t="n">
         <v>69.00006187</v>
       </c>
+      <c r="J33" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1.11607146</v>
+      </c>
+      <c r="L33" t="n">
+        <v>3.00000269</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
@@ -15384,6 +18933,15 @@
       <c r="I34" t="n">
         <v>52.8</v>
       </c>
+      <c r="J34" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0.546875</v>
+      </c>
+      <c r="L34" t="n">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
@@ -15422,6 +18980,15 @@
       </c>
       <c r="I35" t="n">
         <v>69.30001998</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0.495495498</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0.495495498</v>
+      </c>
+      <c r="L35" t="n">
+        <v>3.85000111</v>
       </c>
     </row>
     <row r="36">
@@ -15460,6 +19027,15 @@
       <c r="I36" t="n">
         <v>80.00000446768021</v>
       </c>
+      <c r="J36" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L36" t="n">
+        <v>4.000000223384011</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -15497,6 +19073,15 @@
       <c r="I37" t="n">
         <v>80.00000030127748</v>
       </c>
+      <c r="J37" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L37" t="n">
+        <v>4.000000015063874</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -15534,6 +19119,15 @@
       <c r="I38" t="n">
         <v>80.0000003012764</v>
       </c>
+      <c r="J38" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L38" t="n">
+        <v>4.00000001506382</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -15571,6 +19165,15 @@
       <c r="I39" t="n">
         <v>80.0000446222524</v>
       </c>
+      <c r="J39" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L39" t="n">
+        <v>4.00000223111262</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -15608,6 +19211,15 @@
       <c r="I40" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J40" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -15645,6 +19257,15 @@
       <c r="I41" t="n">
         <v>80.00004462225135</v>
       </c>
+      <c r="J41" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L41" t="n">
+        <v>4.000002231112568</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -15682,6 +19303,15 @@
       <c r="I42" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J42" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -15719,6 +19349,15 @@
       <c r="I43" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J43" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L43" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -15756,6 +19395,15 @@
       <c r="I44" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J44" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -15793,6 +19441,15 @@
       <c r="I45" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J45" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -15830,6 +19487,15 @@
       <c r="I46" t="n">
         <v>79.99996431310807</v>
       </c>
+      <c r="J46" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L46" t="n">
+        <v>3.999998215655403</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -15867,6 +19533,15 @@
       <c r="I47" t="n">
         <v>80.00004462225134</v>
       </c>
+      <c r="J47" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L47" t="n">
+        <v>4.000002231112567</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -15904,6 +19579,15 @@
       <c r="I48" t="n">
         <v>79.99997756714239</v>
       </c>
+      <c r="J48" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3.99999887835712</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -15941,6 +19625,15 @@
       <c r="I49" t="n">
         <v>80.00004453014796</v>
       </c>
+      <c r="J49" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L49" t="n">
+        <v>4.000002226507398</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -15978,6 +19671,15 @@
       <c r="I50" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J50" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -16015,6 +19717,15 @@
       <c r="I51" t="n">
         <v>80.00004261452341</v>
       </c>
+      <c r="J51" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L51" t="n">
+        <v>4.000002130726171</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -16052,6 +19763,15 @@
       <c r="I52" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J52" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -16089,6 +19809,15 @@
       <c r="I53" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J53" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L53" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -16126,6 +19855,15 @@
       <c r="I54" t="n">
         <v>79.99996431310913</v>
       </c>
+      <c r="J54" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L54" t="n">
+        <v>3.999998215655457</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -16163,6 +19901,15 @@
       <c r="I55" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J55" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L55" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -16200,6 +19947,15 @@
       <c r="I56" t="n">
         <v>80.00004462225237</v>
       </c>
+      <c r="J56" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L56" t="n">
+        <v>4.000002231112619</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -16237,6 +19993,15 @@
       <c r="I57" t="n">
         <v>80.00000245995126</v>
       </c>
+      <c r="J57" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L57" t="n">
+        <v>4.000000122997563</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -16274,6 +20039,15 @@
       <c r="I58" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J58" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L58" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -16311,6 +20085,15 @@
       <c r="I59" t="n">
         <v>80.00004462225134</v>
       </c>
+      <c r="J59" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L59" t="n">
+        <v>4.000002231112567</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -16348,6 +20131,15 @@
       <c r="I60" t="n">
         <v>79.99996431310808</v>
       </c>
+      <c r="J60" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3.999998215655404</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -16385,6 +20177,15 @@
       <c r="I61" t="n">
         <v>80.00004662998032</v>
       </c>
+      <c r="J61" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K61" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L61" t="n">
+        <v>4.000002331499016</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -16422,6 +20223,15 @@
       <c r="I62" t="n">
         <v>80.0000446222524</v>
       </c>
+      <c r="J62" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L62" t="n">
+        <v>4.00000223111262</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -16459,6 +20269,15 @@
       <c r="I63" t="n">
         <v>80.00004662998032</v>
       </c>
+      <c r="J63" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.000002331499016</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -16496,6 +20315,15 @@
       <c r="I64" t="n">
         <v>80.00000030127745</v>
       </c>
+      <c r="J64" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L64" t="n">
+        <v>4.000000015063873</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -16533,6 +20361,15 @@
       <c r="I65" t="n">
         <v>79.99996431310871</v>
       </c>
+      <c r="J65" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L65" t="n">
+        <v>3.999998215655435</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -16570,6 +20407,15 @@
       <c r="I66" t="n">
         <v>80</v>
       </c>
+      <c r="J66" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -16607,6 +20453,15 @@
       <c r="I67" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J67" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L67" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -16644,6 +20499,15 @@
       <c r="I68" t="n">
         <v>219</v>
       </c>
+      <c r="J68" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="L68" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -16681,6 +20545,15 @@
       <c r="I69" t="n">
         <v>79.99999289809583</v>
       </c>
+      <c r="J69" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L69" t="n">
+        <v>3.999999644904791</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -16718,6 +20591,15 @@
       <c r="I70" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J70" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L70" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -16755,6 +20637,15 @@
       <c r="I71" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J71" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L71" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -16792,6 +20683,15 @@
       <c r="I72" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J72" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -16829,6 +20729,15 @@
       <c r="I73" t="n">
         <v>80</v>
       </c>
+      <c r="J73" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L73" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -16866,6 +20775,15 @@
       <c r="I74" t="n">
         <v>80</v>
       </c>
+      <c r="J74" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K74" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L74" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -16903,6 +20821,15 @@
       <c r="I75" t="n">
         <v>80</v>
       </c>
+      <c r="J75" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L75" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -16940,6 +20867,15 @@
       <c r="I76" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J76" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L76" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -16977,6 +20913,15 @@
       <c r="I77" t="n">
         <v>80</v>
       </c>
+      <c r="J77" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L77" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -17014,6 +20959,15 @@
       <c r="I78" t="n">
         <v>80</v>
       </c>
+      <c r="J78" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L78" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -17051,6 +21005,15 @@
       <c r="I79" t="n">
         <v>80</v>
       </c>
+      <c r="J79" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K79" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L79" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -17088,6 +21051,15 @@
       <c r="I80" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J80" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L80" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -17125,6 +21097,15 @@
       <c r="I81" t="n">
         <v>79.99999999999893</v>
       </c>
+      <c r="J81" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3.999999999999947</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -17162,6 +21143,15 @@
       <c r="I82" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J82" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L82" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -17199,6 +21189,15 @@
       <c r="I83" t="n">
         <v>80</v>
       </c>
+      <c r="J83" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L83" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -17236,6 +21235,15 @@
       <c r="I84" t="n">
         <v>80</v>
       </c>
+      <c r="J84" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L84" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -17273,6 +21281,15 @@
       <c r="I85" t="n">
         <v>80</v>
       </c>
+      <c r="J85" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L85" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -17310,6 +21327,15 @@
       <c r="I86" t="n">
         <v>80</v>
       </c>
+      <c r="J86" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L86" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -17347,6 +21373,15 @@
       <c r="I87" t="n">
         <v>79.99999999999895</v>
       </c>
+      <c r="J87" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.9821428656578</v>
+      </c>
+      <c r="L87" t="n">
+        <v>3.999999999999948</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -17384,6 +21419,15 @@
       <c r="I88" t="n">
         <v>219.0000000002202</v>
       </c>
+      <c r="J88" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1.14583337306976</v>
+      </c>
+      <c r="L88" t="n">
+        <v>3.000000000003016</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -17419,6 +21463,15 @@
       <c r="I89" t="n">
         <v>78</v>
       </c>
+      <c r="J89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -17454,6 +21507,15 @@
       <c r="I90" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -17489,6 +21551,15 @@
       <c r="I91" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L91" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -17524,6 +21595,15 @@
       <c r="I92" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -17559,6 +21639,15 @@
       <c r="I93" t="n">
         <v>78</v>
       </c>
+      <c r="J93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -17594,6 +21683,15 @@
       <c r="I94" t="n">
         <v>78</v>
       </c>
+      <c r="J94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L94" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -17629,6 +21727,15 @@
       <c r="I95" t="n">
         <v>78</v>
       </c>
+      <c r="J95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -17664,6 +21771,15 @@
       <c r="I96" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -17699,6 +21815,15 @@
       <c r="I97" t="n">
         <v>78</v>
       </c>
+      <c r="J97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -17734,6 +21859,15 @@
       <c r="I98" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -17769,6 +21903,15 @@
       <c r="I99" t="n">
         <v>78</v>
       </c>
+      <c r="J99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L99" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -17804,6 +21947,15 @@
       <c r="I100" t="n">
         <v>78</v>
       </c>
+      <c r="J100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L100" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -17839,6 +21991,15 @@
       <c r="I101" t="n">
         <v>78</v>
       </c>
+      <c r="J101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -17874,6 +22035,15 @@
       <c r="I102" t="n">
         <v>78</v>
       </c>
+      <c r="J102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -17909,6 +22079,15 @@
       <c r="I103" t="n">
         <v>77.99999070167542</v>
       </c>
+      <c r="J103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K103" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1.999999761581421</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -17944,6 +22123,15 @@
       <c r="I104" t="n">
         <v>78</v>
       </c>
+      <c r="J104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K104" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L104" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -17979,6 +22167,15 @@
       <c r="I105" t="n">
         <v>78</v>
       </c>
+      <c r="J105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -18014,6 +22211,15 @@
       <c r="I106" t="n">
         <v>78</v>
       </c>
+      <c r="J106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L106" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -18049,6 +22255,15 @@
       <c r="I107" t="n">
         <v>78</v>
       </c>
+      <c r="J107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L107" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -18084,6 +22299,15 @@
       <c r="I108" t="n">
         <v>78</v>
       </c>
+      <c r="J108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K108" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -18119,6 +22343,15 @@
       <c r="I109" t="n">
         <v>78</v>
       </c>
+      <c r="J109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L109" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -18154,6 +22387,15 @@
       <c r="I110" t="n">
         <v>78</v>
       </c>
+      <c r="J110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L110" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -18191,6 +22433,15 @@
       <c r="I111" t="n">
         <v>160</v>
       </c>
+      <c r="J111" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -18228,6 +22479,15 @@
       <c r="I112" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J112" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -18265,6 +22525,15 @@
       <c r="I113" t="n">
         <v>149.0001983642578</v>
       </c>
+      <c r="J113" t="n">
+        <v>0.291016012430191</v>
+      </c>
+      <c r="K113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.291016012430191</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -18302,6 +22571,15 @@
       <c r="I114" t="n">
         <v>178.9998016357422</v>
       </c>
+      <c r="J114" t="n">
+        <v>0.349608987569809</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.349608987569809</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -18339,6 +22617,15 @@
       <c r="I115" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J115" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -18376,6 +22663,15 @@
       <c r="I116" t="n">
         <v>160.9999389648438</v>
       </c>
+      <c r="J116" t="n">
+        <v>0.3144530057907104</v>
+      </c>
+      <c r="K116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.3144530057907104</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -18413,6 +22709,15 @@
       <c r="I117" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J117" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -18450,6 +22755,15 @@
       <c r="I118" t="n">
         <v>161.9998779296875</v>
       </c>
+      <c r="J118" t="n">
+        <v>0.3164060115814209</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.3164060115814209</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -18487,6 +22801,15 @@
       <c r="I119" t="n">
         <v>176.9999389648438</v>
       </c>
+      <c r="J119" t="n">
+        <v>0.3457030057907104</v>
+      </c>
+      <c r="K119" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.3457030057907104</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -18524,6 +22847,15 @@
       <c r="I120" t="n">
         <v>158.0001220703125</v>
       </c>
+      <c r="J120" t="n">
+        <v>0.3085939884185791</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.3085939884185791</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -18561,6 +22893,15 @@
       <c r="I121" t="n">
         <v>160</v>
       </c>
+      <c r="J121" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -18598,6 +22939,15 @@
       <c r="I122" t="n">
         <v>168</v>
       </c>
+      <c r="J122" t="n">
+        <v>0.328125</v>
+      </c>
+      <c r="K122" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.328125</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -18635,6 +22985,15 @@
       <c r="I123" t="n">
         <v>178.9998016357422</v>
       </c>
+      <c r="J123" t="n">
+        <v>0.349608987569809</v>
+      </c>
+      <c r="K123" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.349608987569809</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -18672,6 +23031,15 @@
       <c r="I124" t="n">
         <v>200</v>
       </c>
+      <c r="J124" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K124" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -18709,6 +23077,15 @@
       <c r="I125" t="n">
         <v>170.9998016357422</v>
       </c>
+      <c r="J125" t="n">
+        <v>0.333983987569809</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.333983987569809</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -18746,6 +23123,15 @@
       <c r="I126" t="n">
         <v>160</v>
       </c>
+      <c r="J126" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -18783,6 +23169,15 @@
       <c r="I127" t="n">
         <v>211.9997406005859</v>
       </c>
+      <c r="J127" t="n">
+        <v>0.4140619933605194</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.4140619933605194</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -18820,6 +23215,15 @@
       <c r="I128" t="n">
         <v>150.0001220703125</v>
       </c>
+      <c r="J128" t="n">
+        <v>0.2929689884185791</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.2929689884185791</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -18857,6 +23261,15 @@
       <c r="I129" t="n">
         <v>152.9999389648438</v>
       </c>
+      <c r="J129" t="n">
+        <v>0.2988280057907104</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.2988280057907104</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -18894,6 +23307,15 @@
       <c r="I130" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J130" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K130" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -18931,6 +23353,15 @@
       <c r="I131" t="n">
         <v>160</v>
       </c>
+      <c r="J131" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K131" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -18968,6 +23399,15 @@
       <c r="I132" t="n">
         <v>190.0001220703125</v>
       </c>
+      <c r="J132" t="n">
+        <v>0.3710939884185791</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.3710939884185791</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -19005,6 +23445,15 @@
       <c r="I133" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J133" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K133" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -19042,6 +23491,15 @@
       <c r="I134" t="n">
         <v>160</v>
       </c>
+      <c r="J134" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -19079,6 +23537,15 @@
       <c r="I135" t="n">
         <v>160</v>
       </c>
+      <c r="J135" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -19116,6 +23583,15 @@
       <c r="I136" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J136" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K136" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -19153,6 +23629,15 @@
       <c r="I137" t="n">
         <v>176</v>
       </c>
+      <c r="J137" t="n">
+        <v>0.34375</v>
+      </c>
+      <c r="K137" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.34375</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -19190,6 +23675,15 @@
       <c r="I138" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J138" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -19227,6 +23721,15 @@
       <c r="I139" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J139" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -19264,6 +23767,15 @@
       <c r="I140" t="n">
         <v>162.9998016357422</v>
       </c>
+      <c r="J140" t="n">
+        <v>0.318358987569809</v>
+      </c>
+      <c r="K140" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.318358987569809</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -19301,6 +23813,15 @@
       <c r="I141" t="n">
         <v>181.0001983642578</v>
       </c>
+      <c r="J141" t="n">
+        <v>0.353516012430191</v>
+      </c>
+      <c r="K141" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.353516012430191</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -19338,6 +23859,15 @@
       <c r="I142" t="n">
         <v>160</v>
       </c>
+      <c r="J142" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -19375,6 +23905,15 @@
       <c r="I143" t="n">
         <v>200.9999389648438</v>
       </c>
+      <c r="J143" t="n">
+        <v>0.3925780057907104</v>
+      </c>
+      <c r="K143" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.3925780057907104</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -19412,6 +23951,15 @@
       <c r="I144" t="n">
         <v>169.9998779296875</v>
       </c>
+      <c r="J144" t="n">
+        <v>0.3320310115814209</v>
+      </c>
+      <c r="K144" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.3320310115814209</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -19449,6 +23997,15 @@
       <c r="I145" t="n">
         <v>161.9998779296875</v>
       </c>
+      <c r="J145" t="n">
+        <v>0.3164060115814209</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.3164060115814209</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -19486,6 +24043,15 @@
       <c r="I146" t="n">
         <v>160</v>
       </c>
+      <c r="J146" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -19523,6 +24089,15 @@
       <c r="I147" t="n">
         <v>126.000129699707</v>
       </c>
+      <c r="J147" t="n">
+        <v>0.2460940033197403</v>
+      </c>
+      <c r="K147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.2460940033197403</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -19560,6 +24135,15 @@
       <c r="I148" t="n">
         <v>160</v>
       </c>
+      <c r="J148" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -19597,6 +24181,15 @@
       <c r="I149" t="n">
         <v>242.9998016357422</v>
       </c>
+      <c r="J149" t="n">
+        <v>0.474608987569809</v>
+      </c>
+      <c r="K149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0.474608987569809</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -19634,6 +24227,15 @@
       <c r="I150" t="n">
         <v>202.9998016357422</v>
       </c>
+      <c r="J150" t="n">
+        <v>0.396483987569809</v>
+      </c>
+      <c r="K150" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L150" t="n">
+        <v>0.396483987569809</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -19671,6 +24273,15 @@
       <c r="I151" t="n">
         <v>170.9998016357422</v>
       </c>
+      <c r="J151" t="n">
+        <v>0.333983987569809</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L151" t="n">
+        <v>0.333983987569809</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -19708,6 +24319,15 @@
       <c r="I152" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J152" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -19745,6 +24365,15 @@
       <c r="I153" t="n">
         <v>200</v>
       </c>
+      <c r="J153" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K153" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -19782,6 +24411,15 @@
       <c r="I154" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J154" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K154" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -19819,6 +24457,15 @@
       <c r="I155" t="n">
         <v>192</v>
       </c>
+      <c r="J155" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="K155" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0.375</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -19856,6 +24503,15 @@
       <c r="I156" t="n">
         <v>131.9997406005859</v>
       </c>
+      <c r="J156" t="n">
+        <v>0.2578119933605194</v>
+      </c>
+      <c r="K156" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0.2578119933605194</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -19893,6 +24549,15 @@
       <c r="I157" t="n">
         <v>165.0001983642578</v>
       </c>
+      <c r="J157" t="n">
+        <v>0.322266012430191</v>
+      </c>
+      <c r="K157" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0.322266012430191</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -19930,6 +24595,15 @@
       <c r="I158" t="n">
         <v>168.9999389648438</v>
       </c>
+      <c r="J158" t="n">
+        <v>0.3300780057907104</v>
+      </c>
+      <c r="K158" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0.3300780057907104</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -19967,6 +24641,15 @@
       <c r="I159" t="n">
         <v>214.0001220703125</v>
       </c>
+      <c r="J159" t="n">
+        <v>0.4179689884185791</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0.4179689884185791</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -20004,6 +24687,15 @@
       <c r="I160" t="n">
         <v>174.0001220703125</v>
       </c>
+      <c r="J160" t="n">
+        <v>0.3398439884185791</v>
+      </c>
+      <c r="K160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0.3398439884185791</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -20041,6 +24733,15 @@
       <c r="I161" t="n">
         <v>163.9997406005859</v>
       </c>
+      <c r="J161" t="n">
+        <v>0.3203119933605194</v>
+      </c>
+      <c r="K161" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0.3203119933605194</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -20078,6 +24779,15 @@
       <c r="I162" t="n">
         <v>210.9998016357422</v>
       </c>
+      <c r="J162" t="n">
+        <v>0.412108987569809</v>
+      </c>
+      <c r="K162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0.412108987569809</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -20115,6 +24825,15 @@
       <c r="I163" t="n">
         <v>160</v>
       </c>
+      <c r="J163" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K163" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L163" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -20152,6 +24871,15 @@
       <c r="I164" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J164" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L164" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -20189,6 +24917,15 @@
       <c r="I165" t="n">
         <v>188.0002593994141</v>
       </c>
+      <c r="J165" t="n">
+        <v>0.3671880066394806</v>
+      </c>
+      <c r="K165" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L165" t="n">
+        <v>0.3671880066394806</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -20226,6 +24963,15 @@
       <c r="I166" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J166" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K166" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L166" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -20263,6 +25009,15 @@
       <c r="I167" t="n">
         <v>160</v>
       </c>
+      <c r="J167" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K167" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L167" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -20300,6 +25055,15 @@
       <c r="I168" t="n">
         <v>168.9999389648438</v>
       </c>
+      <c r="J168" t="n">
+        <v>0.3300780057907104</v>
+      </c>
+      <c r="K168" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L168" t="n">
+        <v>0.3300780057907104</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -20337,6 +25101,15 @@
       <c r="I169" t="n">
         <v>160</v>
       </c>
+      <c r="J169" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K169" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L169" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -20374,6 +25147,15 @@
       <c r="I170" t="n">
         <v>167.0000610351562</v>
       </c>
+      <c r="J170" t="n">
+        <v>0.3261719942092896</v>
+      </c>
+      <c r="K170" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L170" t="n">
+        <v>0.3261719942092896</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -20411,6 +25193,15 @@
       <c r="I171" t="n">
         <v>178.9998016357422</v>
       </c>
+      <c r="J171" t="n">
+        <v>0.349608987569809</v>
+      </c>
+      <c r="K171" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L171" t="n">
+        <v>0.349608987569809</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -20448,6 +25239,15 @@
       <c r="I172" t="n">
         <v>160</v>
       </c>
+      <c r="J172" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L172" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -20485,6 +25285,15 @@
       <c r="I173" t="n">
         <v>160.9999389648438</v>
       </c>
+      <c r="J173" t="n">
+        <v>0.3144530057907104</v>
+      </c>
+      <c r="K173" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0.3144530057907104</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -20522,6 +25331,15 @@
       <c r="I174" t="n">
         <v>151.0000610351562</v>
       </c>
+      <c r="J174" t="n">
+        <v>0.2949219942092896</v>
+      </c>
+      <c r="K174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0.2949219942092896</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -20559,6 +25377,15 @@
       <c r="I175" t="n">
         <v>236.0002593994141</v>
       </c>
+      <c r="J175" t="n">
+        <v>0.4609380066394806</v>
+      </c>
+      <c r="K175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L175" t="n">
+        <v>0.4609380066394806</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -20596,6 +25423,15 @@
       <c r="I176" t="n">
         <v>214.0001220703125</v>
       </c>
+      <c r="J176" t="n">
+        <v>0.4179689884185791</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L176" t="n">
+        <v>0.4179689884185791</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -20633,6 +25469,15 @@
       <c r="I177" t="n">
         <v>158.0001220703125</v>
       </c>
+      <c r="J177" t="n">
+        <v>0.3085939884185791</v>
+      </c>
+      <c r="K177" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L177" t="n">
+        <v>0.3085939884185791</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -20670,6 +25515,15 @@
       <c r="I178" t="n">
         <v>160</v>
       </c>
+      <c r="J178" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K178" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -20707,6 +25561,15 @@
       <c r="I179" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J179" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L179" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -20744,6 +25607,15 @@
       <c r="I180" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J180" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L180" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -20781,6 +25653,15 @@
       <c r="I181" t="n">
         <v>160</v>
       </c>
+      <c r="J181" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K181" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -20818,6 +25699,15 @@
       <c r="I182" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J182" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L182" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -20855,6 +25745,15 @@
       <c r="I183" t="n">
         <v>160</v>
       </c>
+      <c r="J183" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K183" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -20892,6 +25791,15 @@
       <c r="I184" t="n">
         <v>153.9998779296875</v>
       </c>
+      <c r="J184" t="n">
+        <v>0.3007810115814209</v>
+      </c>
+      <c r="K184" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L184" t="n">
+        <v>0.3007810115814209</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -20929,6 +25837,15 @@
       <c r="I185" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J185" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L185" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -20966,6 +25883,15 @@
       <c r="I186" t="n">
         <v>238.0001220703125</v>
       </c>
+      <c r="J186" t="n">
+        <v>0.4648439884185791</v>
+      </c>
+      <c r="K186" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L186" t="n">
+        <v>0.4648439884185791</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -21003,6 +25929,15 @@
       <c r="I187" t="n">
         <v>201.9998779296875</v>
       </c>
+      <c r="J187" t="n">
+        <v>0.3945310115814209</v>
+      </c>
+      <c r="K187" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L187" t="n">
+        <v>0.3945310115814209</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -21040,6 +25975,15 @@
       <c r="I188" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J188" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K188" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L188" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -21077,6 +26021,15 @@
       <c r="I189" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J189" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K189" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L189" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -21114,6 +26067,15 @@
       <c r="I190" t="n">
         <v>160</v>
       </c>
+      <c r="J190" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K190" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L190" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -21151,6 +26113,15 @@
       <c r="I191" t="n">
         <v>183.0000610351562</v>
       </c>
+      <c r="J191" t="n">
+        <v>0.3574219942092896</v>
+      </c>
+      <c r="K191" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L191" t="n">
+        <v>0.3574219942092896</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -21188,6 +26159,15 @@
       <c r="I192" t="n">
         <v>200</v>
       </c>
+      <c r="J192" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K192" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L192" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -21225,6 +26205,15 @@
       <c r="I193" t="n">
         <v>149.0001983642578</v>
       </c>
+      <c r="J193" t="n">
+        <v>0.291016012430191</v>
+      </c>
+      <c r="K193" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L193" t="n">
+        <v>0.291016012430191</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -21262,6 +26251,15 @@
       <c r="I194" t="n">
         <v>127.0000610351562</v>
       </c>
+      <c r="J194" t="n">
+        <v>0.2480469942092896</v>
+      </c>
+      <c r="K194" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L194" t="n">
+        <v>0.2480469942092896</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -21299,6 +26297,15 @@
       <c r="I195" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J195" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K195" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L195" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -21336,6 +26343,15 @@
       <c r="I196" t="n">
         <v>160</v>
       </c>
+      <c r="J196" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K196" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L196" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -21373,6 +26389,15 @@
       <c r="I197" t="n">
         <v>192.9999389648438</v>
       </c>
+      <c r="J197" t="n">
+        <v>0.3769530057907104</v>
+      </c>
+      <c r="K197" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L197" t="n">
+        <v>0.3769530057907104</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -21410,6 +26435,15 @@
       <c r="I198" t="n">
         <v>157.0001983642578</v>
       </c>
+      <c r="J198" t="n">
+        <v>0.306641012430191</v>
+      </c>
+      <c r="K198" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L198" t="n">
+        <v>0.306641012430191</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -21447,6 +26481,15 @@
       <c r="I199" t="n">
         <v>206.0001220703125</v>
       </c>
+      <c r="J199" t="n">
+        <v>0.4023439884185791</v>
+      </c>
+      <c r="K199" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L199" t="n">
+        <v>0.4023439884185791</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -21484,6 +26527,15 @@
       <c r="I200" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J200" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K200" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L200" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -21521,6 +26573,15 @@
       <c r="I201" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J201" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K201" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L201" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -21558,6 +26619,15 @@
       <c r="I202" t="n">
         <v>198.0001220703125</v>
       </c>
+      <c r="J202" t="n">
+        <v>0.3867189884185791</v>
+      </c>
+      <c r="K202" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L202" t="n">
+        <v>0.3867189884185791</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -21595,6 +26665,15 @@
       <c r="I203" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J203" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K203" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L203" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -21632,6 +26711,15 @@
       <c r="I204" t="n">
         <v>160</v>
       </c>
+      <c r="J204" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K204" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L204" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -21669,6 +26757,15 @@
       <c r="I205" t="n">
         <v>184</v>
       </c>
+      <c r="J205" t="n">
+        <v>0.359375</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L205" t="n">
+        <v>0.359375</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -21706,6 +26803,15 @@
       <c r="I206" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J206" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K206" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L206" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -21743,6 +26849,15 @@
       <c r="I207" t="n">
         <v>144</v>
       </c>
+      <c r="J207" t="n">
+        <v>0.28125</v>
+      </c>
+      <c r="K207" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L207" t="n">
+        <v>0.28125</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -21780,6 +26895,15 @@
       <c r="I208" t="n">
         <v>200</v>
       </c>
+      <c r="J208" t="n">
+        <v>0.390625</v>
+      </c>
+      <c r="K208" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L208" t="n">
+        <v>0.390625</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -21817,6 +26941,15 @@
       <c r="I209" t="n">
         <v>189.0001983642578</v>
       </c>
+      <c r="J209" t="n">
+        <v>0.369141012430191</v>
+      </c>
+      <c r="K209" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L209" t="n">
+        <v>0.369141012430191</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -21854,6 +26987,15 @@
       <c r="I210" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J210" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K210" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L210" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -21891,6 +27033,15 @@
       <c r="I211" t="n">
         <v>162.9998016357422</v>
       </c>
+      <c r="J211" t="n">
+        <v>0.318358987569809</v>
+      </c>
+      <c r="K211" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L211" t="n">
+        <v>0.318358987569809</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -21928,6 +27079,15 @@
       <c r="I212" t="n">
         <v>153.9998779296875</v>
       </c>
+      <c r="J212" t="n">
+        <v>0.3007810115814209</v>
+      </c>
+      <c r="K212" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L212" t="n">
+        <v>0.3007810115814209</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -21965,6 +27125,15 @@
       <c r="I213" t="n">
         <v>220.0002593994141</v>
       </c>
+      <c r="J213" t="n">
+        <v>0.4296880066394806</v>
+      </c>
+      <c r="K213" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L213" t="n">
+        <v>0.4296880066394806</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -22002,6 +27171,15 @@
       <c r="I214" t="n">
         <v>160</v>
       </c>
+      <c r="J214" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K214" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L214" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -22039,6 +27217,15 @@
       <c r="I215" t="n">
         <v>160</v>
       </c>
+      <c r="J215" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K215" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L215" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -22076,6 +27263,15 @@
       <c r="I216" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J216" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K216" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L216" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -22113,6 +27309,15 @@
       <c r="I217" t="n">
         <v>188.0002593994141</v>
       </c>
+      <c r="J217" t="n">
+        <v>0.3671880066394806</v>
+      </c>
+      <c r="K217" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L217" t="n">
+        <v>0.3671880066394806</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -22150,6 +27355,15 @@
       <c r="I218" t="n">
         <v>160</v>
       </c>
+      <c r="J218" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K218" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L218" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -22187,6 +27401,15 @@
       <c r="I219" t="n">
         <v>191.0000610351562</v>
       </c>
+      <c r="J219" t="n">
+        <v>0.3730469942092896</v>
+      </c>
+      <c r="K219" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L219" t="n">
+        <v>0.3730469942092896</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -22224,6 +27447,15 @@
       <c r="I220" t="n">
         <v>176.9999389648438</v>
       </c>
+      <c r="J220" t="n">
+        <v>0.3457030057907104</v>
+      </c>
+      <c r="K220" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L220" t="n">
+        <v>0.3457030057907104</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -22261,6 +27493,15 @@
       <c r="I221" t="n">
         <v>208</v>
       </c>
+      <c r="J221" t="n">
+        <v>0.40625</v>
+      </c>
+      <c r="K221" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L221" t="n">
+        <v>0.40625</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -22298,6 +27539,15 @@
       <c r="I222" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J222" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K222" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L222" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -22335,6 +27585,15 @@
       <c r="I223" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J223" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K223" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L223" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -22372,6 +27631,15 @@
       <c r="I224" t="n">
         <v>156.0002593994141</v>
       </c>
+      <c r="J224" t="n">
+        <v>0.3046880066394806</v>
+      </c>
+      <c r="K224" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L224" t="n">
+        <v>0.3046880066394806</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -22409,6 +27677,15 @@
       <c r="I225" t="n">
         <v>179.9997406005859</v>
       </c>
+      <c r="J225" t="n">
+        <v>0.3515619933605194</v>
+      </c>
+      <c r="K225" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L225" t="n">
+        <v>0.3515619933605194</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -22446,6 +27723,15 @@
       <c r="I226" t="n">
         <v>160</v>
       </c>
+      <c r="J226" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K226" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L226" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -22483,6 +27769,15 @@
       <c r="I227" t="n">
         <v>159.0000610351562</v>
       </c>
+      <c r="J227" t="n">
+        <v>0.3105469942092896</v>
+      </c>
+      <c r="K227" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L227" t="n">
+        <v>0.3105469942092896</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -22520,6 +27815,15 @@
       <c r="I228" t="n">
         <v>150.0001220703125</v>
       </c>
+      <c r="J228" t="n">
+        <v>0.2929689884185791</v>
+      </c>
+      <c r="K228" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L228" t="n">
+        <v>0.2929689884185791</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -22557,6 +27861,15 @@
       <c r="I229" t="n">
         <v>186.9998016357422</v>
       </c>
+      <c r="J229" t="n">
+        <v>0.365233987569809</v>
+      </c>
+      <c r="K229" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L229" t="n">
+        <v>0.365233987569809</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -22594,6 +27907,15 @@
       <c r="I230" t="n">
         <v>176.9999389648438</v>
       </c>
+      <c r="J230" t="n">
+        <v>0.3457030057907104</v>
+      </c>
+      <c r="K230" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L230" t="n">
+        <v>0.3457030057907104</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -22631,6 +27953,15 @@
       <c r="I231" t="n">
         <v>160</v>
       </c>
+      <c r="J231" t="n">
+        <v>0.3125</v>
+      </c>
+      <c r="K231" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L231" t="n">
+        <v>0.3125</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -22668,6 +27999,15 @@
       <c r="I232" t="n">
         <v>140.0002593994141</v>
       </c>
+      <c r="J232" t="n">
+        <v>0.2734380066394806</v>
+      </c>
+      <c r="K232" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L232" t="n">
+        <v>0.2734380066394806</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -22705,6 +28045,15 @@
       <c r="I233" t="n">
         <v>195.9997406005859</v>
       </c>
+      <c r="J233" t="n">
+        <v>0.3828119933605194</v>
+      </c>
+      <c r="K233" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L233" t="n">
+        <v>0.3828119933605194</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -22742,6 +28091,15 @@
       <c r="I234" t="n">
         <v>126.000129699707</v>
       </c>
+      <c r="J234" t="n">
+        <v>0.2460940033197403</v>
+      </c>
+      <c r="K234" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L234" t="n">
+        <v>0.2460940033197403</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -22778,6 +28136,15 @@
       </c>
       <c r="I235" t="n">
         <v>198.0001220703125</v>
+      </c>
+      <c r="J235" t="n">
+        <v>0.3867189884185791</v>
+      </c>
+      <c r="K235" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="L235" t="n">
+        <v>0.3867189884185791</v>
       </c>
     </row>
   </sheetData>
